--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.74871951140391</v>
+        <v>4.965136666666667</v>
       </c>
       <c r="H2">
-        <v>4.74871951140391</v>
+        <v>14.89541</v>
       </c>
       <c r="I2">
-        <v>0.1288363797875708</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="J2">
-        <v>0.1288363797875708</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.66733997904986</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N2">
-        <v>1.66733997904986</v>
+        <v>5.013031</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8583235553312213</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8583235553312213</v>
       </c>
       <c r="Q2">
-        <v>7.917729890657856</v>
+        <v>8.296794676412222</v>
       </c>
       <c r="R2">
-        <v>7.917729890657856</v>
+        <v>74.67115208771</v>
       </c>
       <c r="S2">
-        <v>0.1288363797875708</v>
+        <v>0.1127279759530601</v>
       </c>
       <c r="T2">
-        <v>0.1288363797875708</v>
+        <v>0.1127279759530601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.72833716316486</v>
+        <v>4.965136666666667</v>
       </c>
       <c r="H3">
-        <v>3.72833716316486</v>
+        <v>14.89541</v>
       </c>
       <c r="I3">
-        <v>0.1011526289510439</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="J3">
-        <v>0.1011526289510439</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.66733997904986</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N3">
-        <v>1.66733997904986</v>
+        <v>0.213191</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03650223928090977</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03650223928090977</v>
       </c>
       <c r="Q3">
-        <v>6.216405607522113</v>
+        <v>0.3528408170344445</v>
       </c>
       <c r="R3">
-        <v>6.216405607522113</v>
+        <v>3.17556735331</v>
       </c>
       <c r="S3">
-        <v>0.1011526289510439</v>
+        <v>0.004794023799455625</v>
       </c>
       <c r="T3">
-        <v>0.1011526289510439</v>
+        <v>0.004794023799455625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4880397471025</v>
+        <v>4.965136666666667</v>
       </c>
       <c r="H4">
-        <v>13.4880397471025</v>
+        <v>14.89541</v>
       </c>
       <c r="I4">
-        <v>0.3659407988352211</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="J4">
-        <v>0.3659407988352211</v>
+        <v>0.1313350603660867</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.66733997904986</v>
+        <v>0.2047563333333333</v>
       </c>
       <c r="N4">
-        <v>1.66733997904986</v>
+        <v>0.614269</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1051742053878689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1051742053878689</v>
       </c>
       <c r="Q4">
-        <v>22.48914790935756</v>
+        <v>1.016643178365556</v>
       </c>
       <c r="R4">
-        <v>22.48914790935756</v>
+        <v>9.149788605289999</v>
       </c>
       <c r="S4">
-        <v>0.3659407988352211</v>
+        <v>0.01381306061357096</v>
       </c>
       <c r="T4">
-        <v>0.3659407988352211</v>
+        <v>0.01381306061357096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6131583177241</v>
+        <v>3.820792666666667</v>
       </c>
       <c r="H5">
-        <v>13.6131583177241</v>
+        <v>11.462378</v>
       </c>
       <c r="I5">
-        <v>0.3693353610207474</v>
+        <v>0.1010655031696948</v>
       </c>
       <c r="J5">
-        <v>0.3693353610207474</v>
+        <v>0.1010655031696948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.66733997904986</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N5">
-        <v>1.66733997904986</v>
+        <v>5.013031</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8583235553312213</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8583235553312213</v>
       </c>
       <c r="Q5">
-        <v>22.69776310427653</v>
+        <v>6.384584027524223</v>
       </c>
       <c r="R5">
-        <v>22.69776310427653</v>
+        <v>57.461256247718</v>
       </c>
       <c r="S5">
-        <v>0.3693353610207474</v>
+        <v>0.08674690200195127</v>
       </c>
       <c r="T5">
-        <v>0.3693353610207474</v>
+        <v>0.08674690200195126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.820792666666667</v>
+      </c>
+      <c r="H6">
+        <v>11.462378</v>
+      </c>
+      <c r="I6">
+        <v>0.1010655031696948</v>
+      </c>
+      <c r="J6">
+        <v>0.1010655031696948</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.213191</v>
+      </c>
+      <c r="O6">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="P6">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="Q6">
+        <v>0.2715195364664444</v>
+      </c>
+      <c r="R6">
+        <v>2.443675828198</v>
+      </c>
+      <c r="S6">
+        <v>0.003689117179745746</v>
+      </c>
+      <c r="T6">
+        <v>0.003689117179745745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.28027480974082</v>
-      </c>
-      <c r="H6">
-        <v>1.28027480974082</v>
-      </c>
-      <c r="I6">
-        <v>0.03473483140541684</v>
-      </c>
-      <c r="J6">
-        <v>0.03473483140541684</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.66733997904986</v>
-      </c>
-      <c r="N6">
-        <v>1.66733997904986</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>2.134653374451323</v>
-      </c>
-      <c r="R6">
-        <v>2.134653374451323</v>
-      </c>
-      <c r="S6">
-        <v>0.03473483140541684</v>
-      </c>
-      <c r="T6">
-        <v>0.03473483140541684</v>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.820792666666667</v>
+      </c>
+      <c r="H7">
+        <v>11.462378</v>
+      </c>
+      <c r="I7">
+        <v>0.1010655031696948</v>
+      </c>
+      <c r="J7">
+        <v>0.1010655031696948</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2047563333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.614269</v>
+      </c>
+      <c r="O7">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="P7">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="Q7">
+        <v>0.7823314968535556</v>
+      </c>
+      <c r="R7">
+        <v>7.040983471682</v>
+      </c>
+      <c r="S7">
+        <v>0.0106294839879978</v>
+      </c>
+      <c r="T7">
+        <v>0.0106294839879978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.53798066666666</v>
+      </c>
+      <c r="H8">
+        <v>40.61394199999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3580992080295032</v>
+      </c>
+      <c r="J8">
+        <v>0.3580992080295031</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.671010333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.013031</v>
+      </c>
+      <c r="O8">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="P8">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="Q8">
+        <v>22.62210558646688</v>
+      </c>
+      <c r="R8">
+        <v>203.598950278202</v>
+      </c>
+      <c r="S8">
+        <v>0.3073649853971778</v>
+      </c>
+      <c r="T8">
+        <v>0.3073649853971778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.53798066666666</v>
+      </c>
+      <c r="H9">
+        <v>40.61394199999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3580992080295032</v>
+      </c>
+      <c r="J9">
+        <v>0.3580992080295031</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.213191</v>
+      </c>
+      <c r="O9">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="P9">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="Q9">
+        <v>0.9620585454357775</v>
+      </c>
+      <c r="R9">
+        <v>8.658526908921999</v>
+      </c>
+      <c r="S9">
+        <v>0.01307142297779721</v>
+      </c>
+      <c r="T9">
+        <v>0.01307142297779721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.53798066666666</v>
+      </c>
+      <c r="H10">
+        <v>40.61394199999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3580992080295032</v>
+      </c>
+      <c r="J10">
+        <v>0.3580992080295031</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2047563333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.614269</v>
+      </c>
+      <c r="O10">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="P10">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="Q10">
+        <v>2.771987282044222</v>
+      </c>
+      <c r="R10">
+        <v>24.94788553839799</v>
+      </c>
+      <c r="S10">
+        <v>0.03766279965452817</v>
+      </c>
+      <c r="T10">
+        <v>0.03766279965452816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.958785</v>
+      </c>
+      <c r="H11">
+        <v>41.876355</v>
+      </c>
+      <c r="I11">
+        <v>0.3692300924806149</v>
+      </c>
+      <c r="J11">
+        <v>0.3692300924806148</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.671010333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.013031</v>
+      </c>
+      <c r="O11">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="P11">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="Q11">
+        <v>23.32527397577833</v>
+      </c>
+      <c r="R11">
+        <v>209.927465782005</v>
+      </c>
+      <c r="S11">
+        <v>0.316918885713237</v>
+      </c>
+      <c r="T11">
+        <v>0.316918885713237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.958785</v>
+      </c>
+      <c r="H12">
+        <v>41.876355</v>
+      </c>
+      <c r="I12">
+        <v>0.3692300924806149</v>
+      </c>
+      <c r="J12">
+        <v>0.3692300924806148</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.213191</v>
+      </c>
+      <c r="O12">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="P12">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="Q12">
+        <v>0.9919624443116667</v>
+      </c>
+      <c r="R12">
+        <v>8.927661998805</v>
+      </c>
+      <c r="S12">
+        <v>0.01347772518543985</v>
+      </c>
+      <c r="T12">
+        <v>0.01347772518543985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.958785</v>
+      </c>
+      <c r="H13">
+        <v>41.876355</v>
+      </c>
+      <c r="I13">
+        <v>0.3692300924806149</v>
+      </c>
+      <c r="J13">
+        <v>0.3692300924806148</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2047563333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.614269</v>
+      </c>
+      <c r="O13">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="P13">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="Q13">
+        <v>2.858149634388333</v>
+      </c>
+      <c r="R13">
+        <v>25.723346709495</v>
+      </c>
+      <c r="S13">
+        <v>0.03883348158193803</v>
+      </c>
+      <c r="T13">
+        <v>0.03883348158193802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.522417</v>
+      </c>
+      <c r="H14">
+        <v>4.567251000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04027013595410061</v>
+      </c>
+      <c r="J14">
+        <v>0.0402701359541006</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.671010333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.013031</v>
+      </c>
+      <c r="O14">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="P14">
+        <v>0.8583235553312213</v>
+      </c>
+      <c r="Q14">
+        <v>2.543974538642333</v>
+      </c>
+      <c r="R14">
+        <v>22.895770847781</v>
+      </c>
+      <c r="S14">
+        <v>0.03456480626579528</v>
+      </c>
+      <c r="T14">
+        <v>0.03456480626579527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.522417</v>
+      </c>
+      <c r="H15">
+        <v>4.567251000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04027013595410061</v>
+      </c>
+      <c r="J15">
+        <v>0.0402701359541006</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.213191</v>
+      </c>
+      <c r="O15">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="P15">
+        <v>0.03650223928090977</v>
+      </c>
+      <c r="Q15">
+        <v>0.1081885342156667</v>
+      </c>
+      <c r="R15">
+        <v>0.9736968079410001</v>
+      </c>
+      <c r="S15">
+        <v>0.001469950138471348</v>
+      </c>
+      <c r="T15">
+        <v>0.001469950138471348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.522417</v>
+      </c>
+      <c r="H16">
+        <v>4.567251000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04027013595410061</v>
+      </c>
+      <c r="J16">
+        <v>0.0402701359541006</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2047563333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.614269</v>
+      </c>
+      <c r="O16">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="P16">
+        <v>0.1051742053878689</v>
+      </c>
+      <c r="Q16">
+        <v>0.3117245227243333</v>
+      </c>
+      <c r="R16">
+        <v>2.805520704519</v>
+      </c>
+      <c r="S16">
+        <v>0.004235379549833982</v>
+      </c>
+      <c r="T16">
+        <v>0.004235379549833981</v>
       </c>
     </row>
   </sheetData>
